--- a/data/long_dif/P51_N-Urba-long_dif.xlsx
+++ b/data/long_dif/P51_N-Urba-long_dif.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -737,7 +737,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -842,7 +842,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1056,7 +1056,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1161,7 +1161,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1375,7 +1375,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1480,7 +1480,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1694,7 +1694,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1799,7 +1799,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
